--- a/biology/Microbiologie/Actinomycetaceae/Actinomycetaceae.xlsx
+++ b/biology/Microbiologie/Actinomycetaceae/Actinomycetaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Actinomycetaceae sont une famille de bactéries filamenteuses à Gram positif de l'ordre des Actinomycetales. Son nom provient de Actinomyces qui est le genre type de cette famille[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Actinomycetaceae sont une famille de bactéries filamenteuses à Gram positif de l'ordre des Actinomycetales. Son nom provient de Actinomyces qui est le genre type de cette famille.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est proposée dès 1918 par R.E. Buchanan[1] mais elle n'est validée par une publication dans l'IJSEM qu'en 1980 (« Approved lists »)[2].
-En 2018 I. Nouioui et al. proposent une révision de l'embranchement des « Actinobacteria » (devenu Actinomycetota) par des techniques de phylogénétique moléculaire[3]. Ces recherches les conduisent à proposer deux nouveaux ordres, dix nouvelles familles, ainsi qu'une révision de la famille des Actinomycetaceae qui inclut désormais sept nouveaux genres : Boudabousia, Bowdenia (devenu Bowdeniella), Buchananella, Gleimia, Pauljensenia, Schaalia et Winkia. Le périmètre du genre Actinomyces est également révisé, une vingtaine d'espèces étant transférées vers d'autres genres dont la plupart sont l'un des sept nouvellement créés.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est proposée dès 1918 par R.E. Buchanan mais elle n'est validée par une publication dans l'IJSEM qu'en 1980 (« Approved lists »).
+En 2018 I. Nouioui et al. proposent une révision de l'embranchement des « Actinobacteria » (devenu Actinomycetota) par des techniques de phylogénétique moléculaire. Ces recherches les conduisent à proposer deux nouveaux ordres, dix nouvelles familles, ainsi qu'une révision de la famille des Actinomycetaceae qui inclut désormais sept nouveaux genres : Boudabousia, Bowdenia (devenu Bowdeniella), Buchananella, Gleimia, Pauljensenia, Schaalia et Winkia. Le périmètre du genre Actinomyces est également révisé, une vingtaine d'espèces étant transférées vers d'autres genres dont la plupart sont l'un des sept nouvellement créés.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genres validement publiés
-Selon la LPSN  (11 novembre 2022)[4] :
+          <t>Genres validement publiés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (11 novembre 2022) :
 Actinobaculum Lawson et al. 1997
 Actinomyces Harz 1877 – genre type
 Actinotignum Yassin et al. 2015
@@ -567,8 +586,43 @@
 Varibaculum Hall et al. 2003
 Winkia Nouioui et al. 2018
 Au sein de cette famille le genre Falcivibrio a été reclassé en Mobiluncus.
-Genres en attente de publication valide
-Selon la LPSN  (11 novembre 2022)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Actinomycetaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Actinomycetaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (11 novembre 2022) :
 « Actinobacterium » Sampietro 1908
 « Actinomonospora » Castellani et al. 1959
 « Ancrocorticia » Xu et al. 2019
